--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2573,7 +2573,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您在项目“${projectName}”下创建的应用服务“${appServiceName}”失败。&lt;/p&gt;
-&lt;p&gt;&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${appServiceName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href=#/devops/app-service?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=${projectCategory}&amp;organizationId=${organizationId}&gt;查看详情&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-20</t>
@@ -7732,10 +7732,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -7812,17 +7812,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7836,37 +7842,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7881,17 +7857,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7910,6 +7885,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -7919,15 +7925,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7946,20 +7960,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8039,79 +8039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8129,13 +8057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8147,7 +8069,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8159,7 +8135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8171,43 +8159,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8220,6 +8190,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8326,6 +8326,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -8376,17 +8400,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8405,174 +8423,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8581,6 +8581,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9042,10 +9045,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="11" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -9059,79 +9062,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="14"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9139,56 +9142,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9198,64 +9201,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9280,8 +9283,8 @@
   <sheetPr/>
   <dimension ref="A1:P792"/>
   <sheetViews>
-    <sheetView topLeftCell="F58" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -9291,6 +9294,7 @@
     <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="22.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="54.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9620,7 +9624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" ht="104.4" spans="5:16">
       <c r="E17" t="s">
         <v>108</v>
       </c>
@@ -9633,7 +9637,7 @@
       <c r="H17" t="s">
         <v>110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="8" t="s">
         <v>111</v>
       </c>
       <c r="N17" t="s">
@@ -20999,7 +21003,7 @@
   <sheetPr/>
   <dimension ref="A1:M286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F272" workbookViewId="0">
+    <sheetView topLeftCell="F272" workbookViewId="0">
       <selection activeCell="H293" sqref="H292:H293"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="1131">
   <si>
     <r>
       <rPr>
@@ -7801,10 +7801,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -7882,7 +7882,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7912,91 +8010,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8013,20 +8027,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8108,7 +8108,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8120,31 +8186,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8162,43 +8240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8210,7 +8252,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8228,67 +8276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8395,30 +8395,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -8426,45 +8402,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8487,6 +8424,69 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -8495,148 +8495,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9355,8 +9355,8 @@
   <sheetPr/>
   <dimension ref="A1:P807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="G617" sqref="G617"/>
+    <sheetView tabSelected="1" topLeftCell="C605" workbookViewId="0">
+      <selection activeCell="E617" sqref="E617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -18972,7 +18972,10 @@
         <v>617</v>
       </c>
     </row>
-    <row r="617" spans="6:7">
+    <row r="617" spans="5:7">
+      <c r="E617" t="s">
+        <v>578</v>
+      </c>
       <c r="F617" t="str">
         <f>E100</f>
         <v>hmsg_message_template-102</v>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -4646,7 +4646,7 @@
   </si>
   <si>
     <t>&lt;p&gt;您好，${userName}。${jobName}任务已${jobStatus}，&lt;/p&gt;
-&lt;p&gt;&lt;a href=/asgard/task-detail?organizationId==${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+&lt;p&gt;&lt;a href=/asgard/task-detail?organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>hmsg_message_template-103</t>
@@ -7801,10 +7801,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -7882,13 +7882,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -7896,8 +7895,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7911,16 +7925,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7934,6 +7956,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7956,22 +7986,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -7979,38 +7993,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8027,6 +8012,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8108,7 +8108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8120,25 +8120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8150,31 +8132,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8192,7 +8180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8204,19 +8204,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8228,67 +8288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8397,11 +8397,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8417,6 +8424,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8447,196 +8484,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9355,8 +9355,8 @@
   <sheetPr/>
   <dimension ref="A1:P807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C605" workbookViewId="0">
-      <selection activeCell="E617" sqref="E617"/>
+    <sheetView tabSelected="1" topLeftCell="G95" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template-open.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="1131">
   <si>
     <r>
       <rPr>
@@ -4645,8 +4645,8 @@
     <t>JOB_STATUS_SITE.WEB</t>
   </si>
   <si>
-    <t>&lt;p&gt;您好，${userName}。${jobName}任务已${jobStatus}，&lt;/p&gt;
-&lt;p&gt;&lt;a href=/asgard/task-detail?organizationId=${organizationId}&gt;查看详情。&lt;/a&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;p&gt;您好，${userName}。${jobName}任务已${jobStatus}，请注意查看。&lt;/p&gt;
+</t>
   </si>
   <si>
     <t>hmsg_message_template-103</t>
@@ -7802,9 +7802,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -7881,13 +7881,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -7907,66 +7962,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7993,25 +7988,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8019,7 +7997,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8108,19 +8108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8132,7 +8120,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8150,7 +8168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8162,19 +8180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8186,31 +8192,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8222,25 +8222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8252,31 +8240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8289,6 +8259,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8404,45 +8404,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8454,15 +8415,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8492,151 +8444,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9353,10 +9353,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P807"/>
+  <dimension ref="A1:P806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G95" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="A617" sqref="$A617:$XFD617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -18977,11 +18977,11 @@
         <v>578</v>
       </c>
       <c r="F617" t="str">
-        <f>E100</f>
+        <f>消息模板!$E$100</f>
         <v>hmsg_message_template-102</v>
       </c>
       <c r="G617" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="618" spans="5:7">
@@ -18989,11 +18989,11 @@
         <v>578</v>
       </c>
       <c r="F618" t="str">
-        <f>消息模板!$E$100</f>
-        <v>hmsg_message_template-102</v>
+        <f>消息模板!$E$99</f>
+        <v>hmsg_message_template-101</v>
       </c>
       <c r="G618" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
     </row>
     <row r="619" spans="5:7">
@@ -19005,7 +19005,7 @@
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G619" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="620" spans="5:7">
@@ -19017,7 +19017,7 @@
         <v>hmsg_message_template-101</v>
       </c>
       <c r="G620" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
     </row>
     <row r="621" spans="5:7">
@@ -19025,11 +19025,11 @@
         <v>578</v>
       </c>
       <c r="F621" t="str">
-        <f>消息模板!$E$99</f>
-        <v>hmsg_message_template-101</v>
+        <f>消息模板!$E$98</f>
+        <v>hmsg_message_template-100</v>
       </c>
       <c r="G621" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
     </row>
     <row r="622" spans="5:7">
@@ -19041,7 +19041,7 @@
         <v>hmsg_message_template-100</v>
       </c>
       <c r="G622" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="623" spans="5:7">
@@ -19049,11 +19049,11 @@
         <v>578</v>
       </c>
       <c r="F623" t="str">
-        <f>消息模板!$E$98</f>
-        <v>hmsg_message_template-100</v>
+        <f>消息模板!$E$134</f>
+        <v>hmsg_message_template-145</v>
       </c>
       <c r="G623" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
     </row>
     <row r="624" spans="5:7">
@@ -19065,7 +19065,7 @@
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G624" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="625" spans="5:7">
@@ -19077,7 +19077,7 @@
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G625" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="626" spans="5:7">
@@ -19089,7 +19089,7 @@
         <v>hmsg_message_template-145</v>
       </c>
       <c r="G626" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
     </row>
     <row r="627" spans="5:7">
@@ -19097,11 +19097,11 @@
         <v>578</v>
       </c>
       <c r="F627" t="str">
-        <f>消息模板!$E$134</f>
-        <v>hmsg_message_template-145</v>
+        <f>消息模板!$E$133</f>
+        <v>hmsg_message_template-144</v>
       </c>
       <c r="G627" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
     </row>
     <row r="628" spans="5:7">
@@ -19113,7 +19113,7 @@
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G628" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="629" spans="5:7">
@@ -19125,7 +19125,7 @@
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G629" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="630" spans="5:7">
@@ -19137,7 +19137,7 @@
         <v>hmsg_message_template-144</v>
       </c>
       <c r="G630" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
     </row>
     <row r="631" spans="5:7">
@@ -19145,11 +19145,11 @@
         <v>578</v>
       </c>
       <c r="F631" t="str">
-        <f>消息模板!$E$133</f>
-        <v>hmsg_message_template-144</v>
+        <f>消息模板!$E$130</f>
+        <v>hmsg_message_template-141</v>
       </c>
       <c r="G631" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
     </row>
     <row r="632" spans="5:7">
@@ -19161,7 +19161,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G632" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="633" spans="5:7">
@@ -19173,7 +19173,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G633" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="634" spans="5:7">
@@ -19185,7 +19185,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G634" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="635" spans="5:7">
@@ -19197,7 +19197,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G635" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="636" spans="5:7">
@@ -19209,7 +19209,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G636" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="637" spans="5:7">
@@ -19221,7 +19221,7 @@
         <v>hmsg_message_template-141</v>
       </c>
       <c r="G637" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="638" spans="5:7">
@@ -19229,11 +19229,11 @@
         <v>578</v>
       </c>
       <c r="F638" t="str">
-        <f>消息模板!$E$130</f>
-        <v>hmsg_message_template-141</v>
+        <f>消息模板!$E$84</f>
+        <v>hmsg_message_template-86</v>
       </c>
       <c r="G638" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="639" spans="5:7">
@@ -19245,7 +19245,7 @@
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G639" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="640" spans="5:7">
@@ -19257,7 +19257,7 @@
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G640" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="641" spans="5:7">
@@ -19269,7 +19269,7 @@
         <v>hmsg_message_template-86</v>
       </c>
       <c r="G641" t="s">
-        <v>647</v>
+        <v>70</v>
       </c>
     </row>
     <row r="642" spans="5:7">
@@ -19277,11 +19277,11 @@
         <v>578</v>
       </c>
       <c r="F642" t="str">
-        <f>消息模板!$E$84</f>
-        <v>hmsg_message_template-86</v>
+        <f>消息模板!$E$66</f>
+        <v>hmsg_message_template-68</v>
       </c>
       <c r="G642" t="s">
-        <v>70</v>
+        <v>648</v>
       </c>
     </row>
     <row r="643" spans="5:7">
@@ -19293,7 +19293,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G643" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
     </row>
     <row r="644" spans="5:7">
@@ -19305,7 +19305,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G644" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
     </row>
     <row r="645" spans="5:7">
@@ -19317,7 +19317,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G645" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="646" spans="5:7">
@@ -19329,7 +19329,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G646" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="647" spans="5:7">
@@ -19341,7 +19341,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G647" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="648" spans="5:7">
@@ -19353,7 +19353,7 @@
         <v>hmsg_message_template-68</v>
       </c>
       <c r="G648" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
     </row>
     <row r="649" spans="5:7">
@@ -19361,11 +19361,11 @@
         <v>578</v>
       </c>
       <c r="F649" t="str">
-        <f>消息模板!$E$66</f>
-        <v>hmsg_message_template-68</v>
+        <f>消息模板!$E$81</f>
+        <v>hmsg_message_template-83</v>
       </c>
       <c r="G649" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="650" spans="5:7">
@@ -19377,7 +19377,7 @@
         <v>hmsg_message_template-83</v>
       </c>
       <c r="G650" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="651" spans="5:7">
@@ -19389,7 +19389,7 @@
         <v>hmsg_message_template-83</v>
       </c>
       <c r="G651" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="652" spans="5:7">
@@ -19397,11 +19397,11 @@
         <v>578</v>
       </c>
       <c r="F652" t="str">
-        <f>消息模板!$E$81</f>
-        <v>hmsg_message_template-83</v>
+        <f>消息模板!$E$54</f>
+        <v>hmsg_message_template-56</v>
       </c>
       <c r="G652" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="653" spans="5:7">
@@ -19413,7 +19413,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G653" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="654" spans="5:7">
@@ -19425,7 +19425,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G654" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="655" spans="5:7">
@@ -19437,7 +19437,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G655" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
     </row>
     <row r="656" spans="5:7">
@@ -19449,7 +19449,7 @@
         <v>hmsg_message_template-56</v>
       </c>
       <c r="G656" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="657" spans="5:7">
@@ -19457,11 +19457,11 @@
         <v>578</v>
       </c>
       <c r="F657" t="str">
-        <f>消息模板!$E$54</f>
-        <v>hmsg_message_template-56</v>
+        <f>消息模板!$E$52</f>
+        <v>hmsg_message_template-54</v>
       </c>
       <c r="G657" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="658" spans="5:7">
@@ -19473,7 +19473,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G658" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="659" spans="5:7">
@@ -19485,7 +19485,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G659" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="660" spans="5:7">
@@ -19497,7 +19497,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G660" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
     </row>
     <row r="661" spans="5:7">
@@ -19509,7 +19509,7 @@
         <v>hmsg_message_template-54</v>
       </c>
       <c r="G661" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="662" spans="5:7">
@@ -19517,11 +19517,11 @@
         <v>578</v>
       </c>
       <c r="F662" t="str">
-        <f>消息模板!$E$52</f>
-        <v>hmsg_message_template-54</v>
+        <f>消息模板!$E$136</f>
+        <v>hmsg_message_template-147</v>
       </c>
       <c r="G662" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="663" spans="5:7">
@@ -19533,7 +19533,7 @@
         <v>hmsg_message_template-147</v>
       </c>
       <c r="G663" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="664" spans="5:7">
@@ -19545,7 +19545,7 @@
         <v>hmsg_message_template-147</v>
       </c>
       <c r="G664" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="665" spans="5:7">
@@ -19553,11 +19553,11 @@
         <v>578</v>
       </c>
       <c r="F665" t="str">
-        <f>消息模板!$E$136</f>
-        <v>hmsg_message_template-147</v>
+        <f>消息模板!$E$83</f>
+        <v>hmsg_message_template-85</v>
       </c>
       <c r="G665" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="666" spans="5:7">
@@ -19569,7 +19569,7 @@
         <v>hmsg_message_template-85</v>
       </c>
       <c r="G666" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="667" spans="5:7">
@@ -19581,7 +19581,7 @@
         <v>hmsg_message_template-85</v>
       </c>
       <c r="G667" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="668" spans="5:7">
@@ -19589,11 +19589,11 @@
         <v>578</v>
       </c>
       <c r="F668" t="str">
-        <f>消息模板!$E$83</f>
-        <v>hmsg_message_template-85</v>
+        <f>消息模板!$E$42</f>
+        <v>hmsg_message_template-44</v>
       </c>
       <c r="G668" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="669" spans="5:7">
@@ -19605,7 +19605,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G669" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="670" spans="5:7">
@@ -19617,7 +19617,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G670" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="671" spans="5:7">
@@ -19629,7 +19629,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G671" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
     </row>
     <row r="672" spans="5:7">
@@ -19641,7 +19641,7 @@
         <v>hmsg_message_template-44</v>
       </c>
       <c r="G672" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="673" spans="5:7">
@@ -19649,11 +19649,11 @@
         <v>578</v>
       </c>
       <c r="F673" t="str">
-        <f>消息模板!$E$42</f>
-        <v>hmsg_message_template-44</v>
+        <f>消息模板!$E$40</f>
+        <v>hmsg_message_template-42</v>
       </c>
       <c r="G673" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="674" spans="5:7">
@@ -19665,7 +19665,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G674" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="675" spans="5:7">
@@ -19677,7 +19677,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G675" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="676" spans="5:7">
@@ -19689,7 +19689,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G676" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
     </row>
     <row r="677" spans="5:7">
@@ -19701,7 +19701,7 @@
         <v>hmsg_message_template-42</v>
       </c>
       <c r="G677" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="678" spans="5:7">
@@ -19709,11 +19709,11 @@
         <v>578</v>
       </c>
       <c r="F678" t="str">
-        <f>消息模板!$E$40</f>
-        <v>hmsg_message_template-42</v>
+        <f>消息模板!$E$104</f>
+        <v>hmsg_message_template-106</v>
       </c>
       <c r="G678" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
     </row>
     <row r="679" spans="5:7">
@@ -19725,7 +19725,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G679" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
     </row>
     <row r="680" spans="5:7">
@@ -19737,7 +19737,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G680" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
     </row>
     <row r="681" spans="5:7">
@@ -19749,7 +19749,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G681" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="682" spans="5:7">
@@ -19761,7 +19761,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G682" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="683" spans="5:7">
@@ -19773,7 +19773,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G683" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="684" spans="5:7">
@@ -19785,7 +19785,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G684" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
     </row>
     <row r="685" spans="5:7">
@@ -19797,7 +19797,7 @@
         <v>hmsg_message_template-106</v>
       </c>
       <c r="G685" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="686" spans="5:7">
@@ -19805,11 +19805,11 @@
         <v>578</v>
       </c>
       <c r="F686" t="str">
-        <f>消息模板!$E$104</f>
-        <v>hmsg_message_template-106</v>
+        <f>消息模板!$E$19</f>
+        <v>hmsg_message_template-21</v>
       </c>
       <c r="G686" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="687" spans="5:7">
@@ -19821,7 +19821,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G687" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
     </row>
     <row r="688" spans="5:7">
@@ -19833,7 +19833,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G688" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
     </row>
     <row r="689" spans="5:7">
@@ -19845,7 +19845,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G689" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="690" spans="5:7">
@@ -19857,7 +19857,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G690" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="691" spans="5:7">
@@ -19869,7 +19869,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G691" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="692" spans="5:7">
@@ -19881,7 +19881,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G692" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
     </row>
     <row r="693" spans="5:7">
@@ -19893,7 +19893,7 @@
         <v>hmsg_message_template-21</v>
       </c>
       <c r="G693" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="694" spans="5:7">
@@ -19901,11 +19901,11 @@
         <v>578</v>
       </c>
       <c r="F694" t="str">
-        <f>消息模板!$E$19</f>
-        <v>hmsg_message_template-21</v>
+        <f>消息模板!$E$102</f>
+        <v>hmsg_message_template-104</v>
       </c>
       <c r="G694" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="695" spans="5:7">
@@ -19917,7 +19917,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G695" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
     </row>
     <row r="696" spans="5:7">
@@ -19929,7 +19929,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G696" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
     </row>
     <row r="697" spans="5:7">
@@ -19941,7 +19941,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G697" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="698" spans="5:7">
@@ -19953,7 +19953,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G698" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="699" spans="5:7">
@@ -19965,7 +19965,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G699" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="700" spans="5:7">
@@ -19977,7 +19977,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G700" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
     </row>
     <row r="701" spans="5:7">
@@ -19989,7 +19989,7 @@
         <v>hmsg_message_template-104</v>
       </c>
       <c r="G701" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="702" spans="5:7">
@@ -19997,11 +19997,11 @@
         <v>578</v>
       </c>
       <c r="F702" t="str">
-        <f>消息模板!$E$102</f>
-        <v>hmsg_message_template-104</v>
+        <f>消息模板!$E$17</f>
+        <v>hmsg_message_template-17</v>
       </c>
       <c r="G702" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="703" spans="5:7">
@@ -20013,7 +20013,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G703" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="704" spans="5:7">
@@ -20025,7 +20025,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G704" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="705" spans="5:7">
@@ -20037,7 +20037,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G705" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
     </row>
     <row r="706" spans="5:7">
@@ -20049,7 +20049,7 @@
         <v>hmsg_message_template-17</v>
       </c>
       <c r="G706" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="707" spans="5:7">
@@ -20057,11 +20057,11 @@
         <v>578</v>
       </c>
       <c r="F707" t="str">
-        <f>消息模板!$E$17</f>
-        <v>hmsg_message_template-17</v>
+        <f>消息模板!$E$21</f>
+        <v>hmsg_message_template-23</v>
       </c>
       <c r="G707" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="708" spans="5:7">
@@ -20073,7 +20073,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G708" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="709" spans="5:7">
@@ -20085,7 +20085,7 @@
         <v>hmsg_message_template-23</v>
       </c>
       <c r="G709" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="710" spans="5:7">
@@ -20093,11 +20093,11 @@
         <v>578</v>
       </c>
       <c r="F710" t="str">
-        <f>消息模板!$E$21</f>
-        <v>hmsg_message_template-23</v>
+        <f>消息模板!$E$82</f>
+        <v>hmsg_message_template-84</v>
       </c>
       <c r="G710" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="711" spans="5:7">
@@ -20109,7 +20109,7 @@
         <v>hmsg_message_template-84</v>
       </c>
       <c r="G711" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="712" spans="5:7">
@@ -20121,7 +20121,7 @@
         <v>hmsg_message_template-84</v>
       </c>
       <c r="G712" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="713" spans="5:7">
@@ -20129,11 +20129,11 @@
         <v>578</v>
       </c>
       <c r="F713" t="str">
-        <f>消息模板!$E$82</f>
-        <v>hmsg_message_template-84</v>
+        <f>消息模板!$E$53</f>
+        <v>hmsg_message_template-55</v>
       </c>
       <c r="G713" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="714" spans="5:7">
@@ -20145,7 +20145,7 @@
         <v>hmsg_message_template-55</v>
       </c>
       <c r="G714" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="715" spans="5:7">
@@ -20153,11 +20153,11 @@
         <v>578</v>
       </c>
       <c r="F715" t="str">
-        <f>消息模板!$E$53</f>
-        <v>hmsg_message_template-55</v>
+        <f>消息模板!$E$113</f>
+        <v>hmsg_message_template-119</v>
       </c>
       <c r="G715" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
     </row>
     <row r="716" spans="5:7">
@@ -20169,7 +20169,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G716" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="717" spans="5:7">
@@ -20181,7 +20181,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G717" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="718" spans="5:7">
@@ -20193,7 +20193,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G718" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="719" spans="5:7">
@@ -20205,7 +20205,7 @@
         <v>hmsg_message_template-119</v>
       </c>
       <c r="G719" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="720" spans="5:7">
@@ -20213,11 +20213,11 @@
         <v>578</v>
       </c>
       <c r="F720" t="str">
-        <f>消息模板!$E$113</f>
-        <v>hmsg_message_template-119</v>
+        <f>消息模板!$E$18</f>
+        <v>hmsg_message_template-20</v>
       </c>
       <c r="G720" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="721" spans="5:7">
@@ -20229,7 +20229,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G721" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="722" spans="5:7">
@@ -20241,7 +20241,7 @@
         <v>hmsg_message_template-20</v>
       </c>
       <c r="G722" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="723" spans="5:7">
@@ -20249,11 +20249,11 @@
         <v>578</v>
       </c>
       <c r="F723" t="str">
-        <f>消息模板!$E$18</f>
-        <v>hmsg_message_template-20</v>
+        <f>消息模板!$E$110</f>
+        <v>hmsg_message_template-116</v>
       </c>
       <c r="G723" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
     </row>
     <row r="724" spans="5:7">
@@ -20265,7 +20265,7 @@
         <v>hmsg_message_template-116</v>
       </c>
       <c r="G724" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="725" spans="5:7">
@@ -20273,11 +20273,11 @@
         <v>578</v>
       </c>
       <c r="F725" t="str">
-        <f>消息模板!$E$110</f>
-        <v>hmsg_message_template-116</v>
+        <f>消息模板!$E$65</f>
+        <v>hmsg_message_template-67</v>
       </c>
       <c r="G725" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="726" spans="5:7">
@@ -20289,7 +20289,7 @@
         <v>hmsg_message_template-67</v>
       </c>
       <c r="G726" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="727" spans="5:7">
@@ -20297,11 +20297,11 @@
         <v>578</v>
       </c>
       <c r="F727" t="str">
-        <f>消息模板!$E$65</f>
-        <v>hmsg_message_template-67</v>
+        <f>消息模板!$E$101</f>
+        <v>hmsg_message_template-103</v>
       </c>
       <c r="G727" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="728" spans="5:7">
@@ -20313,7 +20313,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G728" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="729" spans="5:7">
@@ -20325,7 +20325,7 @@
         <v>hmsg_message_template-103</v>
       </c>
       <c r="G729" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="730" spans="5:7">
@@ -20333,11 +20333,11 @@
         <v>578</v>
       </c>
       <c r="F730" t="str">
-        <f>消息模板!$E$101</f>
-        <v>hmsg_message_template-103</v>
+        <f>消息模板!$E$103</f>
+        <v>hmsg_message_template-105</v>
       </c>
       <c r="G730" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="731" spans="5:7">
@@ -20349,7 +20349,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G731" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="732" spans="5:7">
@@ -20361,7 +20361,7 @@
         <v>hmsg_message_template-105</v>
       </c>
       <c r="G732" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="733" spans="5:7">
@@ -20369,11 +20369,11 @@
         <v>578</v>
       </c>
       <c r="F733" t="str">
-        <f>消息模板!$E$103</f>
-        <v>hmsg_message_template-105</v>
+        <f>消息模板!$E$106</f>
+        <v>hmsg_message_template-112</v>
       </c>
       <c r="G733" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
     </row>
     <row r="734" spans="5:7">
@@ -20385,7 +20385,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G734" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="735" spans="5:7">
@@ -20397,7 +20397,7 @@
         <v>hmsg_message_template-112</v>
       </c>
       <c r="G735" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="736" spans="5:7">
@@ -20405,11 +20405,11 @@
         <v>578</v>
       </c>
       <c r="F736" t="str">
-        <f>消息模板!$E$106</f>
-        <v>hmsg_message_template-112</v>
+        <f>消息模板!$E$80</f>
+        <v>hmsg_message_template-82</v>
       </c>
       <c r="G736" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
     </row>
     <row r="737" spans="5:7">
@@ -20421,7 +20421,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G737" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="738" spans="5:7">
@@ -20433,7 +20433,7 @@
         <v>hmsg_message_template-82</v>
       </c>
       <c r="G738" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="739" spans="5:7">
@@ -20441,11 +20441,11 @@
         <v>578</v>
       </c>
       <c r="F739" t="str">
-        <f>消息模板!$E$80</f>
-        <v>hmsg_message_template-82</v>
+        <f>消息模板!$E$20</f>
+        <v>hmsg_message_template-22</v>
       </c>
       <c r="G739" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="740" spans="5:7">
@@ -20457,7 +20457,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G740" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="741" spans="5:7">
@@ -20469,7 +20469,7 @@
         <v>hmsg_message_template-22</v>
       </c>
       <c r="G741" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="742" spans="5:7">
@@ -20477,11 +20477,11 @@
         <v>578</v>
       </c>
       <c r="F742" t="str">
-        <f>消息模板!$E$20</f>
-        <v>hmsg_message_template-22</v>
+        <f>消息模板!$E$135</f>
+        <v>hmsg_message_template-146</v>
       </c>
       <c r="G742" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="743" spans="5:7">
@@ -20493,7 +20493,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G743" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="744" spans="5:7">
@@ -20505,7 +20505,7 @@
         <v>hmsg_message_template-146</v>
       </c>
       <c r="G744" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="745" spans="5:7">
@@ -20513,11 +20513,11 @@
         <v>578</v>
       </c>
       <c r="F745" t="str">
-        <f>消息模板!$E$135</f>
-        <v>hmsg_message_template-146</v>
+        <f>消息模板!$E$120</f>
+        <v>hmsg_message_template-126</v>
       </c>
       <c r="G745" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="746" spans="5:7">
@@ -20529,7 +20529,7 @@
         <v>hmsg_message_template-126</v>
       </c>
       <c r="G746" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="747" spans="5:7">
@@ -20537,11 +20537,11 @@
         <v>578</v>
       </c>
       <c r="F747" t="str">
-        <f>消息模板!$E$120</f>
-        <v>hmsg_message_template-126</v>
+        <f>消息模板!$E$16</f>
+        <v>hmsg_message_template-16</v>
       </c>
       <c r="G747" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="748" spans="5:7">
@@ -20553,7 +20553,7 @@
         <v>hmsg_message_template-16</v>
       </c>
       <c r="G748" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="749" spans="5:7">
@@ -20561,11 +20561,11 @@
         <v>578</v>
       </c>
       <c r="F749" t="str">
-        <f>消息模板!$E$16</f>
-        <v>hmsg_message_template-16</v>
+        <f>消息模板!$E$41</f>
+        <v>hmsg_message_template-43</v>
       </c>
       <c r="G749" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="750" spans="5:7">
@@ -20577,7 +20577,7 @@
         <v>hmsg_message_template-43</v>
       </c>
       <c r="G750" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="751" spans="5:7">
@@ -20585,11 +20585,11 @@
         <v>578</v>
       </c>
       <c r="F751" t="str">
-        <f>消息模板!$E$41</f>
-        <v>hmsg_message_template-43</v>
+        <f>消息模板!$E$116</f>
+        <v>hmsg_message_template-122</v>
       </c>
       <c r="G751" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
     </row>
     <row r="752" spans="5:7">
@@ -20601,7 +20601,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G752" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="753" spans="5:7">
@@ -20613,7 +20613,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G753" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="754" spans="5:7">
@@ -20625,7 +20625,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G754" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="755" spans="5:7">
@@ -20637,7 +20637,7 @@
         <v>hmsg_message_template-122</v>
       </c>
       <c r="G755" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="756" spans="5:7">
@@ -20645,11 +20645,11 @@
         <v>578</v>
       </c>
       <c r="F756" t="str">
-        <f>消息模板!$E$116</f>
-        <v>hmsg_message_template-122</v>
+        <f>消息模板!$E$67</f>
+        <v>hmsg_message_template-69</v>
       </c>
       <c r="G756" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="757" spans="5:7">
@@ -20661,7 +20661,7 @@
         <v>hmsg_message_template-69</v>
       </c>
       <c r="G757" t="s">
-        <v>655</v>
+        <v>586</v>
       </c>
     </row>
     <row r="758" spans="5:7">
@@ -20669,11 +20669,11 @@
         <v>578</v>
       </c>
       <c r="F758" t="str">
-        <f>消息模板!$E$67</f>
-        <v>hmsg_message_template-69</v>
+        <f>消息模板!$E$95</f>
+        <v>hmsg_message_template-97</v>
       </c>
       <c r="G758" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
     </row>
     <row r="759" spans="5:7">
@@ -20685,7 +20685,7 @@
         <v>hmsg_message_template-97</v>
       </c>
       <c r="G759" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="760" spans="5:7">
@@ -20693,11 +20693,11 @@
         <v>578</v>
       </c>
       <c r="F760" t="str">
-        <f>消息模板!$E$95</f>
-        <v>hmsg_message_template-97</v>
+        <f>消息模板!$E$91</f>
+        <v>hmsg_message_template-93</v>
       </c>
       <c r="G760" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="761" spans="5:7">
@@ -20709,7 +20709,7 @@
         <v>hmsg_message_template-93</v>
       </c>
       <c r="G761" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="762" spans="5:7">
@@ -20717,11 +20717,11 @@
         <v>578</v>
       </c>
       <c r="F762" t="str">
-        <f>消息模板!$E$91</f>
-        <v>hmsg_message_template-93</v>
+        <f>消息模板!$E$11</f>
+        <v>hmsg_message_template-11</v>
       </c>
       <c r="G762" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="763" spans="5:7">
@@ -20733,7 +20733,7 @@
         <v>hmsg_message_template-11</v>
       </c>
       <c r="G763" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
     </row>
     <row r="764" spans="5:7">
@@ -20741,8 +20741,8 @@
         <v>578</v>
       </c>
       <c r="F764" t="str">
-        <f>消息模板!$E$11</f>
-        <v>hmsg_message_template-11</v>
+        <f>消息模板!$E$140</f>
+        <v>hmsg_message_template-151</v>
       </c>
       <c r="G764" t="s">
         <v>656</v>
@@ -20753,11 +20753,11 @@
         <v>578</v>
       </c>
       <c r="F765" t="str">
-        <f>消息模板!$E$140</f>
-        <v>hmsg_message_template-151</v>
+        <f>消息模板!$E$124</f>
+        <v>hmsg_message_template-130</v>
       </c>
       <c r="G765" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
     </row>
     <row r="766" spans="5:7">
@@ -20769,7 +20769,7 @@
         <v>hmsg_message_template-130</v>
       </c>
       <c r="G766" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
     </row>
     <row r="767" spans="5:7">
@@ -20777,11 +20777,11 @@
         <v>578</v>
       </c>
       <c r="F767" t="str">
-        <f>消息模板!$E$124</f>
-        <v>hmsg_message_template-130</v>
+        <f>消息模板!$E$128</f>
+        <v>hmsg_message_template-139</v>
       </c>
       <c r="G767" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="768" spans="5:7">
@@ -20789,11 +20789,11 @@
         <v>578</v>
       </c>
       <c r="F768" t="str">
-        <f>消息模板!$E$128</f>
-        <v>hmsg_message_template-139</v>
+        <f>消息模板!$E$10</f>
+        <v>hmsg_message_template-10</v>
       </c>
       <c r="G768" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
     </row>
     <row r="769" spans="5:7">
@@ -20805,7 +20805,7 @@
         <v>hmsg_message_template-10</v>
       </c>
       <c r="G769" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
     </row>
     <row r="770" spans="5:7">
@@ -20813,11 +20813,11 @@
         <v>578</v>
       </c>
       <c r="F770" t="str">
-        <f>消息模板!$E$10</f>
-        <v>hmsg_message_template-10</v>
+        <f>消息模板!$E$123</f>
+        <v>hmsg_message_template-129</v>
       </c>
       <c r="G770" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
     </row>
     <row r="771" spans="5:7">
@@ -20829,7 +20829,7 @@
         <v>hmsg_message_template-129</v>
       </c>
       <c r="G771" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
     </row>
     <row r="772" spans="5:7">
@@ -20837,11 +20837,11 @@
         <v>578</v>
       </c>
       <c r="F772" t="str">
-        <f>消息模板!$E$123</f>
-        <v>hmsg_message_template-129</v>
+        <f>消息模板!$E$127</f>
+        <v>hmsg_message_template-138</v>
       </c>
       <c r="G772" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="773" spans="5:7">
@@ -20849,11 +20849,11 @@
         <v>578</v>
       </c>
       <c r="F773" t="str">
-        <f>消息模板!$E$127</f>
-        <v>hmsg_message_template-138</v>
+        <f>消息模板!$E$139</f>
+        <v>hmsg_message_template-150</v>
       </c>
       <c r="G773" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="774" spans="5:7">
@@ -20861,11 +20861,11 @@
         <v>578</v>
       </c>
       <c r="F774" t="str">
-        <f>消息模板!$E$139</f>
-        <v>hmsg_message_template-150</v>
+        <f>消息模板!$E$12</f>
+        <v>hmsg_message_template-12</v>
       </c>
       <c r="G774" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="775" spans="5:7">
@@ -20873,11 +20873,11 @@
         <v>578</v>
       </c>
       <c r="F775" t="str">
-        <f>消息模板!$E$12</f>
-        <v>hmsg_message_template-12</v>
+        <f>消息模板!$E$34</f>
+        <v>hmsg_message_template-36</v>
       </c>
       <c r="G775" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
     </row>
     <row r="776" spans="5:7">
@@ -20889,7 +20889,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G776" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="777" spans="5:7">
@@ -20901,7 +20901,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G777" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
     </row>
     <row r="778" spans="5:7">
@@ -20913,7 +20913,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G778" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
     </row>
     <row r="779" spans="5:7">
@@ -20925,7 +20925,7 @@
         <v>hmsg_message_template-36</v>
       </c>
       <c r="G779" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="780" spans="5:7">
@@ -20933,11 +20933,11 @@
         <v>578</v>
       </c>
       <c r="F780" t="str">
-        <f>消息模板!$E$34</f>
-        <v>hmsg_message_template-36</v>
+        <f>消息模板!$E$33</f>
+        <v>hmsg_message_template-35</v>
       </c>
       <c r="G780" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="781" spans="5:7">
@@ -20949,7 +20949,7 @@
         <v>hmsg_message_template-35</v>
       </c>
       <c r="G781" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="782" spans="5:7">
@@ -20957,11 +20957,11 @@
         <v>578</v>
       </c>
       <c r="F782" t="str">
-        <f>消息模板!$E$33</f>
-        <v>hmsg_message_template-35</v>
+        <f>消息模板!$E$14</f>
+        <v>hmsg_message_template-14</v>
       </c>
       <c r="G782" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="783" spans="5:7">
@@ -20973,7 +20973,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G783" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="784" spans="5:7">
@@ -20985,7 +20985,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G784" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="785" spans="5:7">
@@ -20997,7 +20997,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G785" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="786" spans="5:7">
@@ -21009,7 +21009,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G786" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="787" spans="5:7">
@@ -21021,7 +21021,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G787" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
     </row>
     <row r="788" spans="5:7">
@@ -21033,7 +21033,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G788" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
     </row>
     <row r="789" spans="5:7">
@@ -21045,7 +21045,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G789" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="790" spans="5:7">
@@ -21057,7 +21057,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G790" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="791" spans="5:7">
@@ -21069,7 +21069,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G791" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="792" spans="5:7">
@@ -21081,7 +21081,7 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G792" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="793" spans="5:7">
@@ -21093,46 +21093,46 @@
         <v>hmsg_message_template-14</v>
       </c>
       <c r="G793" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="794" spans="5:7">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="794" spans="5:9">
       <c r="E794" t="s">
         <v>578</v>
       </c>
       <c r="F794" t="str">
-        <f>消息模板!$E$14</f>
-        <v>hmsg_message_template-14</v>
-      </c>
-      <c r="G794" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="795" spans="5:9">
-      <c r="E795" t="s">
-        <v>578</v>
-      </c>
-      <c r="F795" t="str">
         <f>消息模板!$E$68</f>
         <v>hmsg_message_template-70</v>
       </c>
+      <c r="G794" t="s">
+        <v>629</v>
+      </c>
+      <c r="H794" t="s">
+        <v>286</v>
+      </c>
+      <c r="I794" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="795" spans="5:7">
+      <c r="E795" t="s">
+        <v>578</v>
+      </c>
+      <c r="F795" t="str">
+        <f>消息模板!$E$70</f>
+        <v>hmsg_message_template-72</v>
+      </c>
       <c r="G795" t="s">
         <v>629</v>
       </c>
-      <c r="H795" t="s">
-        <v>286</v>
-      </c>
-      <c r="I795" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="796" spans="5:7">
       <c r="E796" t="s">
         <v>578</v>
       </c>
       <c r="F796" t="str">
-        <f>消息模板!$E$70</f>
-        <v>hmsg_message_template-72</v>
+        <f>消息模板!$E$71</f>
+        <v>hmsg_message_template-73</v>
       </c>
       <c r="G796" t="s">
         <v>629</v>
@@ -21143,8 +21143,8 @@
         <v>578</v>
       </c>
       <c r="F797" t="str">
-        <f>消息模板!$E$71</f>
-        <v>hmsg_message_template-73</v>
+        <f>消息模板!$E$72</f>
+        <v>hmsg_message_template-74</v>
       </c>
       <c r="G797" t="s">
         <v>629</v>
@@ -21155,8 +21155,8 @@
         <v>578</v>
       </c>
       <c r="F798" t="str">
-        <f>消息模板!$E$72</f>
-        <v>hmsg_message_template-74</v>
+        <f>消息模板!$E$74</f>
+        <v>hmsg_message_template-76</v>
       </c>
       <c r="G798" t="s">
         <v>629</v>
@@ -21167,8 +21167,8 @@
         <v>578</v>
       </c>
       <c r="F799" t="str">
-        <f>消息模板!$E$74</f>
-        <v>hmsg_message_template-76</v>
+        <f>消息模板!$E$78</f>
+        <v>hmsg_message_template-80</v>
       </c>
       <c r="G799" t="s">
         <v>629</v>
@@ -21179,11 +21179,11 @@
         <v>578</v>
       </c>
       <c r="F800" t="str">
-        <f>消息模板!$E$78</f>
-        <v>hmsg_message_template-80</v>
+        <f>E144</f>
+        <v>hmsg_message_template-155</v>
       </c>
       <c r="G800" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="801" spans="5:7">
@@ -21195,7 +21195,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G801" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="802" spans="5:7">
@@ -21207,7 +21207,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G802" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
     </row>
     <row r="803" spans="5:7">
@@ -21219,7 +21219,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G803" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="804" spans="5:7">
@@ -21231,7 +21231,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G804" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
     </row>
     <row r="805" spans="5:7">
@@ -21243,7 +21243,7 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G805" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="806" spans="5:7">
@@ -21255,18 +21255,6 @@
         <v>hmsg_message_template-155</v>
       </c>
       <c r="G806" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="807" spans="5:7">
-      <c r="E807" t="s">
-        <v>578</v>
-      </c>
-      <c r="F807" t="str">
-        <f>E144</f>
-        <v>hmsg_message_template-155</v>
-      </c>
-      <c r="G807" t="s">
         <v>634</v>
       </c>
     </row>
